--- a/results/agv_logs_M1.xlsx
+++ b/results/agv_logs_M1.xlsx
@@ -1,84 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="13">
-  <si>
-    <t>timestamp</t>
-  </si>
-  <si>
-    <t>machine</t>
-  </si>
-  <si>
-    <t>activity_type</t>
-  </si>
-  <si>
-    <t>job_id</t>
-  </si>
-  <si>
-    <t>destination</t>
-  </si>
-  <si>
-    <t>duration</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>delivery_start</t>
-  </si>
-  <si>
-    <t>delivery_complete</t>
-  </si>
-  <si>
-    <t>return_home</t>
-  </si>
-  <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>J2</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -93,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -409,214 +420,220 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>machine</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>activity_type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>job_id</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>destination</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>duration</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
+    <row r="2">
+      <c r="A2" t="n">
         <v>2.927954835211036</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>delivery_start</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>J1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
         <v>1.448128919900544</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" t="n">
         <v>5.824212675012124</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>delivery_complete</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>J1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
         <v>1.448128919900544</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" t="n">
         <v>5.824212675012124</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>return_home</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>J1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
         <v>1.448128919900544</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>7.816638973643373</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5.872296904427204</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>delivery_start</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>J2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1.21858463357003</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>9.816638973643373</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>8.309466171567262</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>delivery_complete</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>J2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1.21858463357003</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>9.816638973643373</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>15.60526901779658</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8">
-        <v>1.70705189974938</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>19.01937281729534</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9">
-        <v>1.70705189974938</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>19.01937281729534</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10">
-        <v>1.70705189974938</v>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>8.309466171567262</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>return_home</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>J2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1.21858463357003</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/results/agv_logs_M1.xlsx
+++ b/results/agv_logs_M1.xlsx
@@ -467,7 +467,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.927954835211036</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -490,12 +490,12 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.448128919900544</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5.824212675012124</v>
+        <v>10</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -504,12 +504,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>delivery_complete</t>
+          <t>delivery_start</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>J1</t>
+          <t>J2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -518,12 +518,12 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.448128919900544</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5.824212675012124</v>
+        <v>25</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>return_home</t>
+          <t>delivery_complete</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -542,16 +542,16 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>M1</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.448128919900544</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.872296904427204</v>
+        <v>25</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -560,26 +560,26 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>delivery_start</t>
+          <t>return_home</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>J2</t>
+          <t>J1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>M1</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.21858463357003</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8.309466171567262</v>
+        <v>30</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -602,12 +602,12 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.21858463357003</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8.309466171567262</v>
+        <v>30</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.21858463357003</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/results/agv_logs_M1.xlsx
+++ b/results/agv_logs_M1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>delivery_start</t>
+          <t>fetch_request</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -504,7 +504,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>delivery_start</t>
+          <t>fetch_request</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -518,119 +518,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>25</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>delivery_complete</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>J1</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>25</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>return_home</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>J1</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>30</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>delivery_complete</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>J2</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>30</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>return_home</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>J2</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/results/agv_logs_M1.xlsx
+++ b/results/agv_logs_M1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,7 +467,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -481,21 +481,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>J1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
+          <t>J27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -509,15 +505,515 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>J21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>84</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>J5</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>115</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>J29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>128</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>J1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>154</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>J26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>169.3999999999999</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>J19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>178.4999999999999</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>J20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>201.5999999999999</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>J6</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>210.6999999999999</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>J28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>233.7999999999999</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>J12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>267.8999999999999</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>J2</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>280.8999999999999</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>J17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>286.8999999999999</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>J24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>306.6</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>J10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>338.8</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>J8</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>351.8</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>J9</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>383.0000000000003</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>J5</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>426.0000000000003</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>J20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>494.0000000000003</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>J29</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>539.6000000000008</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>J28</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>613.6000000000008</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>J29</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>626.5000000000014</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>J25</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="n">
         <v>0</v>
       </c>
     </row>

--- a/results/agv_logs_M1.xlsx
+++ b/results/agv_logs_M1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,7 +467,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -481,7 +481,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>J27</t>
+          <t>J1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -491,7 +491,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>71</v>
+        <v>291.3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -505,7 +505,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>J21</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -515,7 +515,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>84</v>
+        <v>404.4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -529,7 +529,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>J5</t>
+          <t>J18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -539,7 +539,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>115</v>
+        <v>417.4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -553,7 +553,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>J29</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -563,7 +563,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>128</v>
+        <v>503.5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>J1</t>
+          <t>J29</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -587,7 +587,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>154</v>
+        <v>534.5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -601,7 +601,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>J26</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -611,7 +611,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>169.3999999999999</v>
+        <v>616.6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -635,7 +635,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>178.4999999999999</v>
+        <v>781.8000000000001</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -649,7 +649,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>J20</t>
+          <t>J13</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -659,7 +659,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>201.5999999999999</v>
+        <v>979.0000000000001</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>J6</t>
+          <t>J25</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -683,7 +683,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>210.6999999999999</v>
+        <v>1147.2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>J28</t>
+          <t>J9</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -707,7 +707,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>233.7999999999999</v>
+        <v>1253.3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -721,7 +721,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>J12</t>
+          <t>J10</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -731,7 +731,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>267.8999999999999</v>
+        <v>1259.3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>J2</t>
+          <t>J9</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -755,7 +755,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>280.8999999999999</v>
+        <v>1359.4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>286.8999999999999</v>
+        <v>1503.6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -793,7 +793,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>J24</t>
+          <t>J2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -803,7 +803,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>306.6</v>
+        <v>1583.799999999999</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>J10</t>
+          <t>J2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -827,7 +827,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>338.8</v>
+        <v>1822.099999999999</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>J8</t>
+          <t>J3</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -851,7 +851,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>351.8</v>
+        <v>1990.299999999999</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>J9</t>
+          <t>J5</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -875,7 +875,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>383.0000000000003</v>
+        <v>2196.599999999999</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>J5</t>
+          <t>J11</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -899,7 +899,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>426.0000000000003</v>
+        <v>2361.799999999999</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>J20</t>
+          <t>J28</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -923,7 +923,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>494.0000000000003</v>
+        <v>2555.099999999999</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>J29</t>
+          <t>J24</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -947,7 +947,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>539.6000000000008</v>
+        <v>2561.099999999999</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>J28</t>
+          <t>J17</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -971,7 +971,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>613.6000000000008</v>
+        <v>2628.199999999998</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>J29</t>
+          <t>J23</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -995,7 +995,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>626.5000000000014</v>
+        <v>2734.299999999998</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1009,11 +1009,467 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>J25</t>
+          <t>J20</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2840.399999999998</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>J6</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3051.599999999998</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>J14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>3177.799999999998</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>J15</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>3183.799999999998</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>J2</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3233.099999999998</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>J6</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3384.299999999997</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>J27</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3465.399999999997</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>J26</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>3570.699999999997</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>J20</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>3601.699999999997</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>J17</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>3625.899999999997</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>J16</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>3730.999999999997</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>J19</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>3793.099999999997</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>J8</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>3899.199999999997</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>J4</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>4258.899999999996</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>J30</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>4264.899999999996</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>J4</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>4444.199999999997</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>J15</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>4592.799999999999</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>J23</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>4740.200000000001</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>J26</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>4925.700000000003</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>fetch_request</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>J26</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="n">
         <v>0</v>
       </c>
     </row>

--- a/results/agv_logs_M1.xlsx
+++ b/results/agv_logs_M1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,7 +467,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -481,7 +481,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>J1</t>
+          <t>J26</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -491,7 +491,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>291.3</v>
+        <v>45</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -505,7 +505,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>J23</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -515,7 +515,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>404.4</v>
+        <v>54.2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -529,7 +529,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>J18</t>
+          <t>J5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -539,7 +539,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>417.4</v>
+        <v>70.30000000000001</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -553,7 +553,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>J18</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -563,7 +563,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>503.5</v>
+        <v>83.30000000000001</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>J29</t>
+          <t>J5</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -587,7 +587,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>534.5</v>
+        <v>89.30000000000001</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -601,7 +601,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>J7</t>
+          <t>J30</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -611,7 +611,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>616.6</v>
+        <v>110.7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -625,7 +625,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>J19</t>
+          <t>J6</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -635,7 +635,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>781.8000000000001</v>
+        <v>149.9</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -649,7 +649,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>J13</t>
+          <t>J29</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -659,7 +659,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>979.0000000000001</v>
+        <v>155.9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>J25</t>
+          <t>J27</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -683,7 +683,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1147.2</v>
+        <v>168.3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>J9</t>
+          <t>J14</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -707,7 +707,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1253.3</v>
+        <v>184.3999999999999</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -721,7 +721,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>J10</t>
+          <t>J28</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -731,7 +731,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1259.3</v>
+        <v>195.6999999999999</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>J9</t>
+          <t>J29</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -755,7 +755,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1359.4</v>
+        <v>236.7999999999999</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>J17</t>
+          <t>J22</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -779,7 +779,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1503.6</v>
+        <v>255.7999999999999</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -793,7 +793,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>J2</t>
+          <t>J7</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -803,7 +803,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1583.799999999999</v>
+        <v>272.4999999999999</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>J2</t>
+          <t>J8</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -827,7 +827,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1822.099999999999</v>
+        <v>303.6999999999999</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1990.299999999999</v>
+        <v>334.6999999999999</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>J5</t>
+          <t>J14</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -875,7 +875,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2196.599999999999</v>
+        <v>365.6999999999999</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>J11</t>
+          <t>J19</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -899,7 +899,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2361.799999999999</v>
+        <v>371.6999999999999</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>J28</t>
+          <t>J27</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -923,7 +923,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2555.099999999999</v>
+        <v>377.6999999999999</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>J24</t>
+          <t>J9</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -947,7 +947,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2561.099999999999</v>
+        <v>452.6999999999999</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>J17</t>
+          <t>J27</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -971,7 +971,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2628.199999999998</v>
+        <v>458.6999999999999</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>J23</t>
+          <t>J11</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -995,7 +995,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2734.299999999998</v>
+        <v>553.6999999999999</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>J20</t>
+          <t>J3</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2840.399999999998</v>
+        <v>578.1000000000009</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>J6</t>
+          <t>J24</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3051.599999999998</v>
+        <v>617.300000000001</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1057,419 +1057,11 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>J14</t>
+          <t>J15</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>3177.799999999998</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>fetch_request</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>J15</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>3183.799999999998</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>fetch_request</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>J2</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>3233.099999999998</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>fetch_request</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>J6</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>3384.299999999997</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>fetch_request</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>J27</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>3465.399999999997</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>fetch_request</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>J26</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>3570.699999999997</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>fetch_request</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>J20</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>3601.699999999997</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>fetch_request</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>J17</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>3625.899999999997</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>fetch_request</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>J16</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>3730.999999999997</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>fetch_request</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>J19</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>3793.099999999997</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>fetch_request</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>J8</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>3899.199999999997</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>fetch_request</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>J4</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>4258.899999999996</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>fetch_request</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>J30</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>4264.899999999996</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>fetch_request</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>J4</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>4444.199999999997</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>fetch_request</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>J15</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>4592.799999999999</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>fetch_request</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>J23</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>4740.200000000001</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>fetch_request</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>J26</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>4925.700000000003</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>M1</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>fetch_request</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>J26</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="n">
         <v>0</v>
       </c>
     </row>
